--- a/RNN_python/schd_sam_output_data/anom_data4.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data4.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="D2" t="n">
-        <v>44.4693202952834</v>
+        <v>4.213242260537825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43147.04166666666</v>
+        <v>43146.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>45.09522964521859</v>
+        <v>5.200934746422732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43147.08333333334</v>
+        <v>43146.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75659358848675</v>
+        <v>14.4393753585741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43147.125</v>
+        <v>43146.125</v>
       </c>
       <c r="D5" t="n">
-        <v>27.15399211272805</v>
+        <v>15.58870560763074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43147.16666666666</v>
+        <v>43146.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>33.60026553946248</v>
+        <v>9.202544528136187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43147.20833333334</v>
+        <v>43146.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>29.20995987216786</v>
+        <v>-4.2532584524117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43147.25</v>
+        <v>43146.25</v>
       </c>
       <c r="D8" t="n">
-        <v>22.31735997660277</v>
+        <v>4.357910428631726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43147.29166666666</v>
+        <v>43146.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>49.36760143532652</v>
+        <v>71.5998016488939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43147.33333333334</v>
+        <v>43146.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3233657694548</v>
+        <v>404.7381488683242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43147.375</v>
+        <v>43146.375</v>
       </c>
       <c r="D11" t="n">
-        <v>386.1720653467094</v>
+        <v>411.2980134464444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43147.41666666666</v>
+        <v>43146.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>400.6567238198149</v>
+        <v>397.2356056159449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43147.45833333334</v>
+        <v>43146.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>302.5847081501319</v>
+        <v>305.7655581639032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43147.5</v>
+        <v>43146.5</v>
       </c>
       <c r="D14" t="n">
-        <v>260.2193603746583</v>
+        <v>260.8897871698589</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43147.54166666666</v>
+        <v>43146.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>213.5330043134796</v>
+        <v>224.9722731739585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43147.58333333334</v>
+        <v>43146.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>173.0055300381653</v>
+        <v>191.9142178233099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43147.625</v>
+        <v>43146.625</v>
       </c>
       <c r="D17" t="n">
-        <v>139.5540723529928</v>
+        <v>160.4471525042262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43147.66666666666</v>
+        <v>43146.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>111.4514389368115</v>
+        <v>129.0625931150962</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43147.70833333334</v>
+        <v>43146.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>88.32832179952655</v>
+        <v>99.96497753311549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43147.75</v>
+        <v>43146.75</v>
       </c>
       <c r="D20" t="n">
-        <v>70.52224838206486</v>
+        <v>76.63035149498012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43147.79166666666</v>
+        <v>43146.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>57.76765464935302</v>
+        <v>60.22625589189994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43147.83333333334</v>
+        <v>43146.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>49.21133156222588</v>
+        <v>49.38447726070396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43147.875</v>
+        <v>43146.875</v>
       </c>
       <c r="D23" t="n">
-        <v>43.73601711434895</v>
+        <v>42.02178450061949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43147.91666666666</v>
+        <v>43146.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>40.3138129783253</v>
+        <v>36.84454978494205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43147.95833333334</v>
+        <v>43146.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>20.98019427935736</v>
+        <v>35.22489716788708</v>
       </c>
     </row>
   </sheetData>
@@ -709,61 +709,61 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43147</v>
+        <v>43146</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43147.04166666666</v>
+        <v>43146.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43147.08333333334</v>
+        <v>43146.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43147.125</v>
+        <v>43146.125</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43147.16666666666</v>
+        <v>43146.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43147.20833333334</v>
+        <v>43146.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
@@ -773,180 +773,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43147.25</v>
+        <v>43146.25</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43147.29166666666</v>
+        <v>43146.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43147.33333333334</v>
+        <v>43146.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43147.375</v>
+        <v>43146.375</v>
       </c>
       <c r="D11" t="n">
-        <v>498</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43147.41666666666</v>
+        <v>43146.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>453</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43147.45833333334</v>
+        <v>43146.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>344</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43147.5</v>
+        <v>43146.5</v>
       </c>
       <c r="D14" t="n">
-        <v>305</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43147.54166666666</v>
+        <v>43146.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43147.58333333334</v>
+        <v>43146.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>226</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43147.625</v>
+        <v>43146.625</v>
       </c>
       <c r="D17" t="n">
-        <v>235</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43147.66666666666</v>
+        <v>43146.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>171</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43147.70833333334</v>
+        <v>43146.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43147.75</v>
+        <v>43146.75</v>
       </c>
       <c r="D20" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43147.79166666666</v>
+        <v>43146.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43147.83333333334</v>
+        <v>43146.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43147.875</v>
+        <v>43146.875</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43147.91666666666</v>
+        <v>43146.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43147.95833333334</v>
+        <v>43146.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data4.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data4.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>4.213242260537825</v>
+        <v>26.73064228916078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5.200934746422732</v>
+        <v>27.14810820022319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>14.4393753585741</v>
+        <v>35.22458519723118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15.58870560763074</v>
+        <v>41.52841782931426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>9.202544528136187</v>
+        <v>41.57478472960121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.2532584524117</v>
+        <v>30.25965937667243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>4.357910428631726</v>
+        <v>24.77253032308811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>71.5998016488939</v>
+        <v>53.90986358271833</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>404.7381488683242</v>
+        <v>508.0251645832684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>411.2980134464444</v>
+        <v>442.6327647985269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>397.2356056159449</v>
+        <v>438.874688853268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>305.7655581639032</v>
+        <v>305.3537598418867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>260.8897871698589</v>
+        <v>293.8379144982359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>224.9722731739585</v>
+        <v>256.684276556553</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>191.9142178233099</v>
+        <v>221.1296186896722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>160.4471525042262</v>
+        <v>190.3862115380124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>129.0625931150962</v>
+        <v>154.6498252260497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>99.96497753311549</v>
+        <v>117.1275738397622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>76.63035149498012</v>
+        <v>80.6593788315754</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>60.22625589189994</v>
+        <v>54.85844208801944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>49.38447726070396</v>
+        <v>38.63148306296648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>42.02178450061949</v>
+        <v>30.3077826678829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>36.84454978494205</v>
+        <v>26.86896034950647</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>35.22489716788708</v>
+        <v>21.60609420539636</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>453</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>255</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>297</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data4.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data4.xlsx
@@ -427,7 +427,7 @@
         <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>26.73064228916078</v>
+        <v>20.16636327448458</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>27.14810820022319</v>
+        <v>32.95003164984789</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>35.22458519723118</v>
+        <v>33.14352586651147</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>41.52841782931426</v>
+        <v>31.58807334501113</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>41.57478472960121</v>
+        <v>30.36125703610392</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>30.25965937667243</v>
+        <v>27.63821407165662</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>24.77253032308811</v>
+        <v>32.00043389178285</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>53.90986358271833</v>
+        <v>59.5209501532425</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>508.0251645832684</v>
+        <v>449.2326994589979</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>442.6327647985269</v>
+        <v>464.9458276844431</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>438.874688853268</v>
+        <v>457.4365921519661</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>305.3537598418867</v>
+        <v>339.635543915591</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>293.8379144982359</v>
+        <v>306.0546235236725</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>256.684276556553</v>
+        <v>267.2200739658169</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>221.1296186896722</v>
+        <v>231.4927892625194</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>190.3862115380124</v>
+        <v>196.5546155093261</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>154.6498252260497</v>
+        <v>160.7608700655388</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>117.1275738397622</v>
+        <v>123.9334362355459</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>80.6593788315754</v>
+        <v>89.29105281960511</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>54.85844208801944</v>
+        <v>61.61070953433989</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>38.63148306296648</v>
+        <v>43.0275475351373</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>30.3077826678829</v>
+        <v>32.56353464196044</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>26.86896034950647</v>
+        <v>27.86689070961742</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>21.60609420539636</v>
+        <v>17.80249770366339</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data4.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data4.xlsx
@@ -427,7 +427,7 @@
         <v>43150</v>
       </c>
       <c r="D2" t="n">
-        <v>20.16636327448458</v>
+        <v>21.64324232845254</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43150.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>32.95003164984789</v>
+        <v>29.89810676008756</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43150.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>33.14352586651147</v>
+        <v>32.62086760993057</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43150.125</v>
       </c>
       <c r="D5" t="n">
-        <v>31.58807334501113</v>
+        <v>37.33806040603177</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43150.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>30.36125703610392</v>
+        <v>39.42287823131842</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43150.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>27.63821407165662</v>
+        <v>32.24505455512201</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43150.25</v>
       </c>
       <c r="D8" t="n">
-        <v>32.00043389178285</v>
+        <v>32.4962821604844</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43150.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>59.5209501532425</v>
+        <v>47.9255302902376</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43150.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>449.2326994589979</v>
+        <v>497.9653946166364</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43150.375</v>
       </c>
       <c r="D11" t="n">
-        <v>464.9458276844431</v>
+        <v>438.0147125346585</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43150.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>457.4365921519661</v>
+        <v>452.5294361219906</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43150.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>339.635543915591</v>
+        <v>314.7349804818857</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43150.5</v>
       </c>
       <c r="D14" t="n">
-        <v>306.0546235236725</v>
+        <v>291.9446888911516</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43150.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>267.2200739658169</v>
+        <v>263.5293688081584</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43150.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>231.4927892625194</v>
+        <v>220.1930619067026</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43150.625</v>
       </c>
       <c r="D17" t="n">
-        <v>196.5546155093261</v>
+        <v>193.941014810404</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43150.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>160.7608700655388</v>
+        <v>155.3018216531121</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43150.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9334362355459</v>
+        <v>115.99152562967</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43150.75</v>
       </c>
       <c r="D20" t="n">
-        <v>89.29105281960511</v>
+        <v>80.58489147556978</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43150.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>61.61070953433989</v>
+        <v>53.9878546200999</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43150.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>43.0275475351373</v>
+        <v>37.22783549999146</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43150.875</v>
       </c>
       <c r="D23" t="n">
-        <v>32.56353464196044</v>
+        <v>28.47105278542695</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43150.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>27.86689070961742</v>
+        <v>25.13427404956622</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43150.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>17.80249770366339</v>
+        <v>22.50949797212546</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data4.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data4.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43150</v>
+        <v>43075</v>
       </c>
       <c r="D2" t="n">
-        <v>21.64324232845254</v>
+        <v>6.282611217758529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43150.04166666666</v>
+        <v>43075.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>29.89810676008756</v>
+        <v>15.68820518462026</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43150.08333333334</v>
+        <v>43075.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>32.62086760993057</v>
+        <v>-26.5020410985221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43150.125</v>
+        <v>43075.125</v>
       </c>
       <c r="D5" t="n">
-        <v>37.33806040603177</v>
+        <v>-92.96366946518835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43150.16666666666</v>
+        <v>43075.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>39.42287823131842</v>
+        <v>-43.44819479700801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43150.20833333334</v>
+        <v>43075.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>32.24505455512201</v>
+        <v>-15.30974631560336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43150.25</v>
+        <v>43075.25</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4962821604844</v>
+        <v>-2.370430763179598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43150.29166666666</v>
+        <v>43075.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>47.9255302902376</v>
+        <v>231.6731287881238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43150.33333333334</v>
+        <v>43075.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>497.9653946166364</v>
+        <v>350.2694391082213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43150.375</v>
+        <v>43075.375</v>
       </c>
       <c r="D11" t="n">
-        <v>438.0147125346585</v>
+        <v>350.7124038766523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43150.41666666666</v>
+        <v>43075.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>452.5294361219906</v>
+        <v>274.7319231987217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43150.45833333334</v>
+        <v>43075.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>314.7349804818857</v>
+        <v>267.0659291301986</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43150.5</v>
+        <v>43075.5</v>
       </c>
       <c r="D14" t="n">
-        <v>291.9446888911516</v>
+        <v>217.7880664339267</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43150.54166666666</v>
+        <v>43075.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>263.5293688081584</v>
+        <v>210.9292452052396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43150.58333333334</v>
+        <v>43075.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>220.1930619067026</v>
+        <v>168.5666212709332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43150.625</v>
+        <v>43075.625</v>
       </c>
       <c r="D17" t="n">
-        <v>193.941014810404</v>
+        <v>129.7959984276926</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43150.66666666666</v>
+        <v>43075.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>155.3018216531121</v>
+        <v>92.82569784181864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43150.70833333334</v>
+        <v>43075.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>115.99152562967</v>
+        <v>79.1075690652176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43150.75</v>
+        <v>43075.75</v>
       </c>
       <c r="D20" t="n">
-        <v>80.58489147556978</v>
+        <v>67.12074574236277</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43150.79166666666</v>
+        <v>43075.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>53.9878546200999</v>
+        <v>67.90996079444918</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43150.83333333334</v>
+        <v>43075.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37.22783549999146</v>
+        <v>65.84732785258481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43150.875</v>
+        <v>43075.875</v>
       </c>
       <c r="D23" t="n">
-        <v>28.47105278542695</v>
+        <v>74.44078672231365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43150.91666666666</v>
+        <v>43075.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>25.13427404956622</v>
+        <v>77.01531117711338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43150.95833333334</v>
+        <v>43075.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>22.50949797212546</v>
+        <v>-32.05002487469319</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43150</v>
+        <v>43075</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43150.04166666666</v>
+        <v>43075.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43150.08333333334</v>
+        <v>43075.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43150.125</v>
+        <v>43075.125</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43150.16666666666</v>
+        <v>43075.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43150.20833333334</v>
+        <v>43075.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43150.25</v>
+        <v>43075.25</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43150.29166666666</v>
+        <v>43075.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43150.33333333334</v>
+        <v>43075.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>565</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43150.375</v>
+        <v>43075.375</v>
       </c>
       <c r="D11" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43150.41666666666</v>
+        <v>43075.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>525</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43150.45833333334</v>
+        <v>43075.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>385</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43150.5</v>
+        <v>43075.5</v>
       </c>
       <c r="D14" t="n">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43150.54166666666</v>
+        <v>43075.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>351</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43150.58333333334</v>
+        <v>43075.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43150.625</v>
+        <v>43075.625</v>
       </c>
       <c r="D17" t="n">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43150.66666666666</v>
+        <v>43075.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43150.70833333334</v>
+        <v>43075.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43150.75</v>
+        <v>43075.75</v>
       </c>
       <c r="D20" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43150.79166666666</v>
+        <v>43075.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43150.83333333334</v>
+        <v>43075.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43150.875</v>
+        <v>43075.875</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43150.91666666666</v>
+        <v>43075.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43150.95833333334</v>
+        <v>43075.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
